--- a/assignment1.xlsx
+++ b/assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KIRANMAYI\Desktop\sql work\assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA3903E4-E8EB-4BBC-AE98-6BF4AD394CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87E6C27-7090-4D20-AE72-37EC2DD91E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E4C9041-6D81-477A-9E80-D30D675A1A5E}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,12 +510,11 @@
         <v>6</v>
       </c>
       <c r="E4" s="1">
-        <f>IF(D4="same day",0.2,IF(D4="first class",0.1,IF(D4="standard class",0.05,0)))</f>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="1">
         <f>(B4-C4)*(1+E4)</f>
-        <v>210</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
